--- a/LTQL/PersonalProject/Document/Prototype.xlsx
+++ b/LTQL/PersonalProject/Document/Prototype.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chức Năng" sheetId="8" r:id="rId1"/>
-    <sheet name="Type Databse" sheetId="4" r:id="rId2"/>
-    <sheet name="Celar" sheetId="1" r:id="rId3"/>
-    <sheet name="UI" sheetId="2" r:id="rId4"/>
-    <sheet name="Design" sheetId="7" r:id="rId5"/>
-    <sheet name=" Database" sheetId="3" r:id="rId6"/>
-    <sheet name="MVC Model" sheetId="5" r:id="rId7"/>
-    <sheet name="ManagermentProgram" sheetId="6" r:id="rId8"/>
+    <sheet name="FormMain" sheetId="9" r:id="rId2"/>
+    <sheet name="Type Databse" sheetId="4" r:id="rId3"/>
+    <sheet name="Celar" sheetId="1" r:id="rId4"/>
+    <sheet name="UI" sheetId="2" r:id="rId5"/>
+    <sheet name="Design" sheetId="7" r:id="rId6"/>
+    <sheet name=" Database" sheetId="3" r:id="rId7"/>
+    <sheet name="MVC Model" sheetId="5" r:id="rId8"/>
+    <sheet name="ManagermentProgram" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="213">
   <si>
     <t>Personal Project</t>
   </si>
@@ -545,9 +546,6 @@
     <t>Thêm tài khoản</t>
   </si>
   <si>
-    <t xml:space="preserve">Tạo thêm kho danh mục </t>
-  </si>
-  <si>
     <t>Tạo báo cáo</t>
   </si>
   <si>
@@ -555,12 +553,120 @@
   </si>
   <si>
     <t>vd: Bàn ghế</t>
+  </si>
+  <si>
+    <t>Tạo thêm kho bộ phận</t>
+  </si>
+  <si>
+    <t>Form Main</t>
+  </si>
+  <si>
+    <t>Đổi tên User</t>
+  </si>
+  <si>
+    <t>Đổi Avatar User</t>
+  </si>
+  <si>
+    <t>Button QL Người dùng</t>
+  </si>
+  <si>
+    <t>Button QL Nhân Viên</t>
+  </si>
+  <si>
+    <t>Button QL Bộ Phận</t>
+  </si>
+  <si>
+    <t>Button QL Người dùng: Thêm, Xóa, Sửa thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Button QL Thiết bị</t>
+  </si>
+  <si>
+    <t>Button Cài đặt</t>
+  </si>
+  <si>
+    <t>Chức năng FormMain</t>
+  </si>
+  <si>
+    <t>: Thêm, Xóa, Sửa thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Quản lí Admin và User từng bộ phận</t>
+  </si>
+  <si>
+    <t>Thanh tìm kiếm tìm kiếm Mã người dùng, Tên người dùng, tài khoản</t>
+  </si>
+  <si>
+    <t>Combox box tìm kiếm các bộ phận</t>
+  </si>
+  <si>
+    <t>Button Phân quyền người dùng</t>
+  </si>
+  <si>
+    <t>Thanh Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Combo box</t>
+  </si>
+  <si>
+    <t>Combo box hiển thị Mã người dùng</t>
+  </si>
+  <si>
+    <t>Textbox tên người dùng hiển thị theo mã người dùng</t>
+  </si>
+  <si>
+    <t>Combo box phân quyền bộ phận</t>
+  </si>
+  <si>
+    <t>Combo box phân quyền chức năng</t>
+  </si>
+  <si>
+    <t>Khóa tài khoản</t>
+  </si>
+  <si>
+    <t>Mở tài khoản</t>
+  </si>
+  <si>
+    <t>Cập nhật nhân viên</t>
+  </si>
+  <si>
+    <t>Lựa chọn</t>
+  </si>
+  <si>
+    <t>Thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Thêm, sửa thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên theo dòng</t>
+  </si>
+  <si>
+    <t>Combo box lựa chọn theo bộ phận</t>
+  </si>
+  <si>
+    <t>Mã nhân viên, họ tên, CMND</t>
+  </si>
+  <si>
+    <t>Thêm, sửa các thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Cập nhật bộ phận</t>
+  </si>
+  <si>
+    <t>Thêm, sửa bộ phận</t>
+  </si>
+  <si>
+    <t>Xóa bộ phận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -593,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +748,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -655,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,95 +1230,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" t="s">
-        <v>171</v>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1213,33 +1359,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1362,7 +1716,7 @@
         <v>128</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1632,7 +1986,7 @@
       <c r="H30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="13.9" customHeight="1">
+    <row r="31" spans="1:13" ht="13.95" customHeight="1">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1729,7 +2083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1737,11 +2091,11 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1810,7 +2164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1818,11 +2172,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,7 +2191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16.8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +2205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +2219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +2230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +2252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1906,7 +2260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +2276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +2284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.8">
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1962,13 +2316,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
@@ -1976,23 +2330,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2074,7 +2428,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="28.5">
+    <row r="5" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -2094,7 +2448,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5">
+    <row r="6" spans="1:15" ht="27.6">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2532,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="66">
+    <row r="11" spans="1:15" ht="67.2">
       <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2550,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="49.5">
+    <row r="12" spans="1:15" ht="50.4">
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
@@ -2214,7 +2568,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="33">
+    <row r="13" spans="1:15" ht="33.6">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -2232,7 +2586,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="33">
+    <row r="14" spans="1:15" ht="33.6">
       <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
@@ -2250,7 +2604,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="82.5">
+    <row r="15" spans="1:15" ht="84">
       <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2622,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="33">
+    <row r="16" spans="1:15" ht="33.6">
       <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
@@ -2286,7 +2640,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="33">
+    <row r="17" spans="1:15" ht="33.6">
       <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
@@ -2304,7 +2658,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="33">
+    <row r="18" spans="1:15" ht="33.6">
       <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
@@ -2322,7 +2676,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="28.5">
+    <row r="19" spans="1:15" ht="27.6">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
@@ -2338,7 +2692,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="42.75">
+    <row r="20" spans="1:15" ht="41.4">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
@@ -2386,7 +2740,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5">
+    <row r="23" spans="1:15" ht="16.8">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
@@ -2402,7 +2756,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="16.5">
+    <row r="24" spans="1:15" ht="16.8">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
@@ -2418,7 +2772,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5">
+    <row r="25" spans="1:15" ht="16.8">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
@@ -2450,7 +2804,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="28.5">
+    <row r="27" spans="1:15" ht="27.6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
@@ -2498,7 +2852,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="28.5">
+    <row r="30" spans="1:15" ht="27.6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
@@ -2514,7 +2868,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="28.5">
+    <row r="31" spans="1:15" ht="27.6">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
@@ -2546,7 +2900,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="28.5">
+    <row r="33" spans="1:15" ht="27.6">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
@@ -2610,7 +2964,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="28.5">
+    <row r="37" spans="1:15" ht="27.6">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
@@ -2674,7 +3028,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="28.5">
+    <row r="41" spans="1:15" ht="27.6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9" t="s">
@@ -2690,7 +3044,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="28.5">
+    <row r="42" spans="1:15" ht="27.6">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9" t="s">
@@ -2706,7 +3060,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="28.5">
+    <row r="43" spans="1:15" ht="27.6">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
@@ -2722,7 +3076,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="28.5">
+    <row r="44" spans="1:15">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9" t="s">
@@ -2738,7 +3092,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="28.5">
+    <row r="45" spans="1:15" ht="27.6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
@@ -2787,7 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:P21"/>
   <sheetViews>
@@ -2795,7 +3149,7 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="7:16">
       <c r="J4" s="21" t="s">
@@ -3015,7 +3369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3023,7 +3377,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LTQL/PersonalProject/Document/Prototype.xlsx
+++ b/LTQL/PersonalProject/Document/Prototype.xlsx
@@ -817,6 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,7 +842,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,13 +1247,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="18" t="s">
@@ -1376,13 +1376,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="18"/>
@@ -1464,13 +1464,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="19" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
@@ -1877,21 +1877,21 @@
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="F24" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
@@ -2100,14 +2100,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -3152,12 +3152,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="7:16">
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="6" spans="7:16">
       <c r="G6" s="17"/>
@@ -3173,40 +3173,40 @@
     </row>
     <row r="7" spans="7:16">
       <c r="G7" s="17"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="7:16">
       <c r="G8" s="17"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="7:16">
       <c r="G9" s="17"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="7:16">
@@ -3235,40 +3235,40 @@
     </row>
     <row r="12" spans="7:16">
       <c r="G12" s="17"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="7:16">
       <c r="G13" s="17"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="17"/>
     </row>
     <row r="14" spans="7:16">
       <c r="G14" s="17"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="7:16">
@@ -3297,40 +3297,40 @@
     </row>
     <row r="17" spans="7:16">
       <c r="G17" s="17"/>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="7:16">
       <c r="G18" s="17"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="7:16">
       <c r="G19" s="17"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="7:16">
